--- a/data.xlsx
+++ b/data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cifra_excela</t>
+          <t>transplantation_method</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -9222,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -11286,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -11381,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -12410,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -12950,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -13320,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -13868,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -14972,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -15348,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -15443,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -15538,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -15633,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -15720,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -15981,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -16076,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -16618,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -16980,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -17441,7 +17441,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -17997,7 +17997,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -18280,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -18470,7 +18470,7 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
